--- a/data/trans_bre/P37_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,44</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,86</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>14,78%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-9,74%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 26,69</t>
+          <t>-18,09; 27,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 30,25</t>
+          <t>-13,09; 32,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 18,06</t>
+          <t>-26,33; 19,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 49,43</t>
+          <t>-21,36; 22,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 62,28</t>
+          <t>-22,19; 58,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 29,72</t>
+          <t>-17,32; 73,48</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-32,69; 34,45</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-26,98; 41,15</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>16,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>19,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>34,6%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14,89%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>51,05%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 22,25</t>
+          <t>-15,85; 32,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 26,53</t>
+          <t>-6,77; 44,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 24,6</t>
+          <t>-16,19; 35,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 39,43</t>
+          <t>-5,76; 49,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 62,77</t>
+          <t>-20,25; 78,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 53,4</t>
+          <t>-9,06; 172,82</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-23,82; 116,7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-9,95; 235,54</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,31</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,92</t>
+          <t>-9,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,68%</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,07%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,01%</t>
+          <t>-13,5%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-9,02%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 10,28</t>
+          <t>-13,5; 17,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,1; -1,7</t>
+          <t>-25,19; 7,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 1,06</t>
+          <t>-15,56; 15,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 17,68</t>
+          <t>-21,85; 10,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,64; -2,38</t>
+          <t>-17,85; 32,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 1,72</t>
+          <t>-32,66; 10,23</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-21,27; 29,3</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-29,73; 18,83</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-3,15%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 14,21</t>
+          <t>-9,44; 19,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 12,39</t>
+          <t>-8,78; 20,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 11,13</t>
+          <t>-13,73; 14,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 26,97</t>
+          <t>-16,62; 11,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 24,42</t>
+          <t>-14,17; 37,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 21,92</t>
+          <t>-13,71; 43,48</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-21,39; 29,99</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-26,08; 24,73</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,0</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>-10,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,39%</t>
+          <t>-5,04%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-4,98%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-16,95%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 19,16</t>
+          <t>-8,72; 28,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 9,26</t>
+          <t>-21,45; 13,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 5,92</t>
+          <t>-21,71; 13,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 35,64</t>
+          <t>-27,48; 8,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 16,05</t>
+          <t>-11,57; 59,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 10,07</t>
+          <t>-29,62; 21,84</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-29,85; 22,9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-41,25; 14,79</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,25</t>
+          <t>-19,51</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-34,41%</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>-27,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>-12,78%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-3,32%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-2,77%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,46; -7,55</t>
+          <t>-37,99; 1,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 9,43</t>
+          <t>-28,93; 11,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 25,84</t>
+          <t>-22,39; 20,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,15; -12,64</t>
+          <t>-28,66; 22,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 17,67</t>
+          <t>-48,74; 0,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 53,28</t>
+          <t>-38,69; 19,57</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-35,67; 47,34</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-42,88; 49,36</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,61%</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,95%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 4,49</t>
+          <t>-6,28; 10,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 4,91</t>
+          <t>-5,37; 10,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 3,6</t>
+          <t>-7,17; 10,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 7,15</t>
+          <t>-8,77; 11,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 8,35</t>
+          <t>-9,02; 18,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 6,09</t>
+          <t>-8,35; 19,52</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-10,94; 18,74</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-14,32; 22,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P37_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37_R2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,89</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,01</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,2%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,78%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-9,74%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,24%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.987493011279921</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.844874965396507</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.127497985360607</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.927992336322992</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.09397500332586586</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.09541599890963826</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.07227796682163888</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.02667657676431266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,09; 27,99</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,09; 32,39</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-26,33; 19,7</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-21,36; 22,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-22,19; 58,8</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-17,32; 73,48</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-32,69; 34,45</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-26,98; 41,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.86220625923691</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.16480591147436</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-25.04317859086763</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-24.89842322233503</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2512972076999794</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2315673642567133</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3103942688821192</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.303486874100918</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>29.14735235734079</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>30.19809797010183</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21.42705954682441</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>19.61150105321142</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.6155965956446665</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6976356688585263</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4080528268662634</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3239126698700724</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>16,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,01</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,52</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,97%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>34,6%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>14,89%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>51,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,85; 32,63</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,77; 44,88</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-16,19; 35,14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 49,32</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-20,25; 78,43</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 172,82</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-23,82; 116,7</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-9,95; 235,54</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>12.99007754848098</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>13.78400522797727</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.248019369918312</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>20.72598397000538</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2205198587363508</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2748849319239728</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1318609042263469</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5482342116777758</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-9,39</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,65</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-13,5%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-9,02%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.14245828901321</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.557541140692447</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-15.49470737261672</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.411825681671045</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1552657509795168</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1259299606350598</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2286373444939178</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.07145236303158929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,5; 17,52</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-25,19; 7,22</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,56; 15,24</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-21,85; 10,37</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-17,85; 32,64</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-32,66; 10,23</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-21,27; 29,3</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-29,73; 18,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>39.39529068616039</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>40.45719487488566</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>34.67139955969124</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>50.51898204293607</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.007474061423211</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.341760903734229</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.063946036315351</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.527031855765081</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,08</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,75</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,31%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,17%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-3,15%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.9726351031446923</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-9.472753608248619</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.322310252812464</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-4.54284393842358</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.01440960523874558</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1353269911403372</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.02122491426407005</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.07360872378860668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,44; 19,06</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,78; 20,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,73; 14,97</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; 11,83</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-14,17; 37,61</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-13,71; 43,48</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-21,39; 29,99</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-26,08; 24,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.70377831752966</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-25.082704006708</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-14.18877362271667</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-20.56722321167978</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2085234182412186</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3288101393476921</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2023427184140711</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2877100561967614</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.65130819256928</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.605879135698397</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.89468842841109</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.67712905832638</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2827021428118484</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.09945631222757498</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3331275484687156</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2181031272774469</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,28</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-10,78</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>13,02%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-5,04%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-4,98%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-16,95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 28,29</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-21,45; 13,08</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-21,71; 13,33</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-27,48; 8,35</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-11,57; 59,29</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-29,62; 21,84</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-29,85; 22,9</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-41,25; 14,79</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.303460463903088</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.42566140511963</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.643845528800191</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.9486011323161514</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1059230880321607</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.09718797386821666</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.01095992212967598</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.01701584453866997</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-19,51</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-8,44</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,85</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-27,01%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-12,78%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-3,32%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-2,77%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.846488987776808</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.587814303428281</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-14.88393389852192</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-15.78489447443949</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1131453036837596</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1329182473910688</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2229817193510248</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2525937310541342</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-37,99; 1,8</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-28,93; 11,19</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-22,39; 20,75</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-28,66; 22,58</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-48,74; 0,71</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-38,69; 19,57</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-35,67; 47,34</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-42,88; 49,36</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>20.33829749152164</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>20.36753597184817</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>13.93293934981657</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.91905580316224</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4049752637243652</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.453701918727087</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2787185890254561</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2751043392048408</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,98%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,11%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>1,73%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>8.260230382495726</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.827503016051258</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-3.79586121155514</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-9.508359160074409</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.1384403974272335</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.04194514418620718</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.05798897734983194</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.1523530241222184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 10,62</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,37; 10,74</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,17; 10,05</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-8,77; 11,36</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; 18,21</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-8,35; 19,52</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-10,94; 18,74</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-14,32; 22,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.224737154339339</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-21.31748406550405</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-22.79174293156104</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-26.99287695188648</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.1186417996053182</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.2836533974280955</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.3063445411965595</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.3957759394926271</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>28.7330657098921</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>14.37542627001523</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>12.6446686085909</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>9.392894064744171</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.6065526677037957</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.2457050600132693</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.2206555161612827</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.1704665318543993</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-12.2698098098138</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-8.563156913907743</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.3876376877394838</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>3.008132055271662</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.1869694960794034</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.1306181558086955</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.007011899174262641</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.05597533496180165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-32.38520530413153</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-28.92767077029576</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-20.76643377354535</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-22.35088823758965</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.4284264892967714</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.3945559377858149</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.3337578723382434</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.3470316013978886</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>11.08166139446967</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>11.72261934024997</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>24.32436565859857</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>27.84836573516879</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.1927484550992133</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.2166194443857903</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.5523729979077278</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.6692248063004155</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.146022885470446</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.974372614940755</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4079807018783521</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.084526646242024</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.06679356271966087</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.01593018065272804</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.00666907974774572</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.03720356519756914</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.978319539656572</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.157322141252455</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-7.024076890715891</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-7.501726794500119</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.05919597702130473</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.0935371717491698</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.1077601836109678</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.1231947237860416</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>12.76675858153638</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>9.291123998012706</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>10.22228280221346</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>13.06008737415756</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.2282038862646944</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.1672255835317974</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.1848008235046844</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.2663566731780143</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
